--- a/Task2/uniform-graphed.xlsx
+++ b/Task2/uniform-graphed.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Eclipse\Task2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\GitHub\PHYS-488\Task2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11355A98-B4CB-46F2-A58B-2E5BDDF417B3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24300" windowHeight="10725"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="uniform" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -39,7 +48,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -591,70 +600,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Uniformly</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Distributed Numbers</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11218160757617632"/>
+          <c:y val="4.2328035915505123E-2"/>
+          <c:w val="0.86226670366204905"/>
+          <c:h val="0.79282710154244795"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -679,6 +637,342 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>uniform!$D$5:$D$54</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="50"/>
+                  <c:pt idx="0">
+                    <c:v>140.76221083799399</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>140.93260800822401</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>142.133739836817</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>141.22676800097</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>141.55211054590399</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>141.89080308462499</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>142.063366143422</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>141.10634287656899</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>140.65560778013699</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>140.75865870346999</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>140.85098508707699</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>140.897125591688</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>141.68980203246801</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>142.11966788590499</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>141.442567849993</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>141.414284992712</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>140.826133938271</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>141.01418368376901</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>141.67215675636399</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>140.24621207005899</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>141.51325026300501</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>140.836784967564</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>142.010562987405</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>141.269246476365</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>141.17365193264601</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>142.712998707195</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>142.51666569212099</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>142.37626206639899</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>141.36123938336101</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>140.90422278980799</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>141.52031656267499</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>141.396605334074</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>141.75330683973399</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>142.109113008279</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>141.396605334074</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>141.70391667134601</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>141.343553089626</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>142.33411397131701</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>141.51678345694501</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>140.46351839534699</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>142.172430520125</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>141.031911282517</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>141.866134084213</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>141.54151334502501</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>140.267601391055</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>140.9858148893</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>141</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>142.038727113417</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>140.42791745233501</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>142.204078703812</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>uniform!$D$5:$D$54</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="50"/>
+                  <c:pt idx="0">
+                    <c:v>140.76221083799399</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>140.93260800822401</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>142.133739836817</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>141.22676800097</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>141.55211054590399</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>141.89080308462499</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>142.063366143422</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>141.10634287656899</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>140.65560778013699</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>140.75865870346999</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>140.85098508707699</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>140.897125591688</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>141.68980203246801</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>142.11966788590499</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>141.442567849993</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>141.414284992712</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>140.826133938271</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>141.01418368376901</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>141.67215675636399</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>140.24621207005899</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>141.51325026300501</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>140.836784967564</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>142.010562987405</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>141.269246476365</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>141.17365193264601</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>142.712998707195</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>142.51666569212099</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>142.37626206639899</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>141.36123938336101</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>140.90422278980799</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>141.52031656267499</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>141.396605334074</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>141.75330683973399</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>142.109113008279</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>141.396605334074</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>141.70391667134601</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>141.343553089626</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>142.33411397131701</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>141.51678345694501</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>140.46351839534699</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>142.172430520125</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>141.031911282517</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>141.866134084213</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>141.54151334502501</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>140.267601391055</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>140.9858148893</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>141</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>142.038727113417</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>140.42791745233501</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>142.204078703812</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>uniform!$B$5:$B$54</c:f>
@@ -845,154 +1139,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>969</c:v>
+                  <c:v>19814</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>967</c:v>
+                  <c:v>19862</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1063</c:v>
+                  <c:v>20202</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>973</c:v>
+                  <c:v>19945</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1028</c:v>
+                  <c:v>20037</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>974</c:v>
+                  <c:v>20133</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>998</c:v>
+                  <c:v>20182</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>997</c:v>
+                  <c:v>19911</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>992</c:v>
+                  <c:v>19784</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1024</c:v>
+                  <c:v>19813</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>991</c:v>
+                  <c:v>19839</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>966</c:v>
+                  <c:v>19852</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>989</c:v>
+                  <c:v>20076</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>995</c:v>
+                  <c:v>20198</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>982</c:v>
+                  <c:v>20006</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>998</c:v>
+                  <c:v>19998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1022</c:v>
+                  <c:v>19832</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>956</c:v>
+                  <c:v>19885</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>978</c:v>
+                  <c:v>20071</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>991</c:v>
+                  <c:v>19669</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>972</c:v>
+                  <c:v>20026</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>971</c:v>
+                  <c:v>19835</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1013</c:v>
+                  <c:v>20167</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1031</c:v>
+                  <c:v>19957</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>994</c:v>
+                  <c:v>19930</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1000</c:v>
+                  <c:v>20367</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1017</c:v>
+                  <c:v>20311</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1048</c:v>
+                  <c:v>20271</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>971</c:v>
+                  <c:v>19983</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1064</c:v>
+                  <c:v>19854</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>997</c:v>
+                  <c:v>20028</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1001</c:v>
+                  <c:v>19993</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>967</c:v>
+                  <c:v>20094</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1018</c:v>
+                  <c:v>20195</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>940</c:v>
+                  <c:v>19993</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1002</c:v>
+                  <c:v>20080</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1007</c:v>
+                  <c:v>19978</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1031</c:v>
+                  <c:v>20259</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1029</c:v>
+                  <c:v>20027</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1032</c:v>
+                  <c:v>19730</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1030</c:v>
+                  <c:v>20213</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>949</c:v>
+                  <c:v>19890</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>984</c:v>
+                  <c:v>20126</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1008</c:v>
+                  <c:v>20034</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1032</c:v>
+                  <c:v>19675</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1062</c:v>
+                  <c:v>19877</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>964</c:v>
+                  <c:v>19881</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>976</c:v>
+                  <c:v>20175</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1051</c:v>
+                  <c:v>19720</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>986</c:v>
+                  <c:v>20222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1048,7 +1342,14 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.52358208704072118"/>
+              <c:y val="0.9299469490636475"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1169,7 +1470,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1827,19 +2127,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>457201</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2119,16 +2425,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2136,7 +2442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2144,7 +2450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2152,7 +2458,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2160,7 +2466,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -2168,13 +2474,13 @@
         <v>0.01</v>
       </c>
       <c r="C5">
-        <v>969</v>
+        <v>19814</v>
       </c>
       <c r="D5">
-        <v>31.1287648325467</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>140.76221083799399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2182,13 +2488,13 @@
         <v>0.03</v>
       </c>
       <c r="C6">
-        <v>967</v>
+        <v>19862</v>
       </c>
       <c r="D6">
-        <v>31.096623610932401</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>140.93260800822401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2196,13 +2502,13 @@
         <v>0.05</v>
       </c>
       <c r="C7">
-        <v>1063</v>
+        <v>20202</v>
       </c>
       <c r="D7">
-        <v>32.603680773802203</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>142.133739836817</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -2210,13 +2516,13 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C8">
-        <v>973</v>
+        <v>19945</v>
       </c>
       <c r="D8">
-        <v>31.1929479209644</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141.22676800097</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -2224,13 +2530,17 @@
         <v>0.09</v>
       </c>
       <c r="C9">
-        <v>1028</v>
+        <v>20037</v>
       </c>
       <c r="D9">
-        <v>32.062439083762797</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141.55211054590399</v>
+      </c>
+      <c r="F9">
+        <f>SQRT(C9)</f>
+        <v>141.55211054590461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -2238,13 +2548,13 @@
         <v>0.11</v>
       </c>
       <c r="C10">
-        <v>974</v>
+        <v>20133</v>
       </c>
       <c r="D10">
-        <v>31.208973068654402</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141.89080308462499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -2252,13 +2562,13 @@
         <v>0.13</v>
       </c>
       <c r="C11">
-        <v>998</v>
+        <v>20182</v>
       </c>
       <c r="D11">
-        <v>31.591137997862599</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>142.063366143422</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
@@ -2266,13 +2576,13 @@
         <v>0.15</v>
       </c>
       <c r="C12">
-        <v>997</v>
+        <v>19911</v>
       </c>
       <c r="D12">
-        <v>31.575306807693799</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141.10634287656899</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
@@ -2280,13 +2590,13 @@
         <v>0.17</v>
       </c>
       <c r="C13">
-        <v>992</v>
+        <v>19784</v>
       </c>
       <c r="D13">
-        <v>31.496031496047198</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>140.65560778013699</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
@@ -2294,13 +2604,13 @@
         <v>0.19</v>
       </c>
       <c r="C14">
-        <v>1024</v>
+        <v>19813</v>
       </c>
       <c r="D14">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>140.75865870346999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
@@ -2308,13 +2618,13 @@
         <v>0.21</v>
       </c>
       <c r="C15">
-        <v>991</v>
+        <v>19839</v>
       </c>
       <c r="D15">
-        <v>31.480152477394299</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>140.85098508707699</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11</v>
       </c>
@@ -2322,10 +2632,10 @@
         <v>0.23</v>
       </c>
       <c r="C16">
-        <v>966</v>
+        <v>19852</v>
       </c>
       <c r="D16">
-        <v>31.0805405358401</v>
+        <v>140.897125591688</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2336,10 +2646,10 @@
         <v>0.25</v>
       </c>
       <c r="C17">
-        <v>989</v>
+        <v>20076</v>
       </c>
       <c r="D17">
-        <v>31.4483703870327</v>
+        <v>141.68980203246801</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2350,10 +2660,10 @@
         <v>0.27</v>
       </c>
       <c r="C18">
-        <v>995</v>
+        <v>20198</v>
       </c>
       <c r="D18">
-        <v>31.543620591174999</v>
+        <v>142.11966788590499</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2364,10 +2674,10 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="C19">
-        <v>982</v>
+        <v>20006</v>
       </c>
       <c r="D19">
-        <v>31.3368792319847</v>
+        <v>141.442567849993</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2378,10 +2688,10 @@
         <v>0.31</v>
       </c>
       <c r="C20">
-        <v>998</v>
+        <v>19998</v>
       </c>
       <c r="D20">
-        <v>31.591137997862599</v>
+        <v>141.414284992712</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2392,10 +2702,10 @@
         <v>0.33</v>
       </c>
       <c r="C21">
-        <v>1022</v>
+        <v>19832</v>
       </c>
       <c r="D21">
-        <v>31.968734726291501</v>
+        <v>140.826133938271</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2406,10 +2716,10 @@
         <v>0.35</v>
       </c>
       <c r="C22">
-        <v>956</v>
+        <v>19885</v>
       </c>
       <c r="D22">
-        <v>30.919249667480599</v>
+        <v>141.01418368376901</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2420,10 +2730,10 @@
         <v>0.37</v>
       </c>
       <c r="C23">
-        <v>978</v>
+        <v>20071</v>
       </c>
       <c r="D23">
-        <v>31.2729915422237</v>
+        <v>141.67215675636399</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2434,10 +2744,10 @@
         <v>0.39</v>
       </c>
       <c r="C24">
-        <v>991</v>
+        <v>19669</v>
       </c>
       <c r="D24">
-        <v>31.480152477394299</v>
+        <v>140.24621207005899</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2448,10 +2758,10 @@
         <v>0.41</v>
       </c>
       <c r="C25">
-        <v>972</v>
+        <v>20026</v>
       </c>
       <c r="D25">
-        <v>31.1769145362397</v>
+        <v>141.51325026300501</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2462,10 +2772,10 @@
         <v>0.43</v>
       </c>
       <c r="C26">
-        <v>971</v>
+        <v>19835</v>
       </c>
       <c r="D26">
-        <v>31.1608729017657</v>
+        <v>140.836784967564</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2476,10 +2786,10 @@
         <v>0.45</v>
       </c>
       <c r="C27">
-        <v>1013</v>
+        <v>20167</v>
       </c>
       <c r="D27">
-        <v>31.827660925679002</v>
+        <v>142.010562987405</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2490,10 +2800,10 @@
         <v>0.47</v>
       </c>
       <c r="C28">
-        <v>1031</v>
+        <v>19957</v>
       </c>
       <c r="D28">
-        <v>32.109188716004603</v>
+        <v>141.269246476365</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2504,10 +2814,10 @@
         <v>0.49</v>
       </c>
       <c r="C29">
-        <v>994</v>
+        <v>19930</v>
       </c>
       <c r="D29">
-        <v>31.527765540868799</v>
+        <v>141.17365193264601</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2518,10 +2828,10 @@
         <v>0.51</v>
       </c>
       <c r="C30">
-        <v>1000</v>
+        <v>20367</v>
       </c>
       <c r="D30">
-        <v>31.6227766016837</v>
+        <v>142.712998707195</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2532,10 +2842,10 @@
         <v>0.53</v>
       </c>
       <c r="C31">
-        <v>1017</v>
+        <v>20311</v>
       </c>
       <c r="D31">
-        <v>31.8904374382039</v>
+        <v>142.51666569212099</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2546,10 +2856,10 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="C32">
-        <v>1048</v>
+        <v>20271</v>
       </c>
       <c r="D32">
-        <v>32.372828112477201</v>
+        <v>142.37626206639899</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2560,10 +2870,10 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="C33">
-        <v>971</v>
+        <v>19983</v>
       </c>
       <c r="D33">
-        <v>31.1608729017657</v>
+        <v>141.36123938336101</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2574,10 +2884,10 @@
         <v>0.59</v>
       </c>
       <c r="C34">
-        <v>1064</v>
+        <v>19854</v>
       </c>
       <c r="D34">
-        <v>32.619012860600101</v>
+        <v>140.90422278980799</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2588,10 +2898,10 @@
         <v>0.61</v>
       </c>
       <c r="C35">
-        <v>997</v>
+        <v>20028</v>
       </c>
       <c r="D35">
-        <v>31.575306807693799</v>
+        <v>141.52031656267499</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2602,10 +2912,10 @@
         <v>0.63</v>
       </c>
       <c r="C36">
-        <v>1001</v>
+        <v>19993</v>
       </c>
       <c r="D36">
-        <v>31.6385840391127</v>
+        <v>141.396605334074</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2616,10 +2926,10 @@
         <v>0.65</v>
       </c>
       <c r="C37">
-        <v>967</v>
+        <v>20094</v>
       </c>
       <c r="D37">
-        <v>31.096623610932401</v>
+        <v>141.75330683973399</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2630,10 +2940,10 @@
         <v>0.67</v>
       </c>
       <c r="C38">
-        <v>1018</v>
+        <v>20195</v>
       </c>
       <c r="D38">
-        <v>31.9061122670876</v>
+        <v>142.109113008279</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2644,10 +2954,10 @@
         <v>0.69</v>
       </c>
       <c r="C39">
-        <v>940</v>
+        <v>19993</v>
       </c>
       <c r="D39">
-        <v>30.659419433511701</v>
+        <v>141.396605334074</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2658,10 +2968,10 @@
         <v>0.71</v>
       </c>
       <c r="C40">
-        <v>1002</v>
+        <v>20080</v>
       </c>
       <c r="D40">
-        <v>31.654383582688801</v>
+        <v>141.70391667134601</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2672,10 +2982,10 @@
         <v>0.73</v>
       </c>
       <c r="C41">
-        <v>1007</v>
+        <v>19978</v>
       </c>
       <c r="D41">
-        <v>31.733263305244801</v>
+        <v>141.343553089626</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2686,10 +2996,10 @@
         <v>0.75</v>
       </c>
       <c r="C42">
-        <v>1031</v>
+        <v>20259</v>
       </c>
       <c r="D42">
-        <v>32.109188716004603</v>
+        <v>142.33411397131701</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2700,10 +3010,10 @@
         <v>0.77</v>
       </c>
       <c r="C43">
-        <v>1029</v>
+        <v>20027</v>
       </c>
       <c r="D43">
-        <v>32.078029864690798</v>
+        <v>141.51678345694501</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2714,10 +3024,10 @@
         <v>0.79</v>
       </c>
       <c r="C44">
-        <v>1032</v>
+        <v>19730</v>
       </c>
       <c r="D44">
-        <v>32.124756808417999</v>
+        <v>140.46351839534699</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2728,10 +3038,10 @@
         <v>0.81</v>
       </c>
       <c r="C45">
-        <v>1030</v>
+        <v>20213</v>
       </c>
       <c r="D45">
-        <v>32.093613071762398</v>
+        <v>142.172430520125</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2742,10 +3052,10 @@
         <v>0.83</v>
       </c>
       <c r="C46">
-        <v>949</v>
+        <v>19890</v>
       </c>
       <c r="D46">
-        <v>30.805843601498701</v>
+        <v>141.031911282517</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2756,10 +3066,10 @@
         <v>0.85</v>
       </c>
       <c r="C47">
-        <v>984</v>
+        <v>20126</v>
       </c>
       <c r="D47">
-        <v>31.368774282716199</v>
+        <v>141.866134084213</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2770,10 +3080,10 @@
         <v>0.87</v>
       </c>
       <c r="C48">
-        <v>1008</v>
+        <v>20034</v>
       </c>
       <c r="D48">
-        <v>31.749015732775</v>
+        <v>141.54151334502501</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2784,10 +3094,10 @@
         <v>0.89</v>
       </c>
       <c r="C49">
-        <v>1032</v>
+        <v>19675</v>
       </c>
       <c r="D49">
-        <v>32.124756808417999</v>
+        <v>140.267601391055</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2798,10 +3108,10 @@
         <v>0.91</v>
       </c>
       <c r="C50">
-        <v>1062</v>
+        <v>19877</v>
       </c>
       <c r="D50">
-        <v>32.5883414736006</v>
+        <v>140.9858148893</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2812,10 +3122,10 @@
         <v>0.93</v>
       </c>
       <c r="C51">
-        <v>964</v>
+        <v>19881</v>
       </c>
       <c r="D51">
-        <v>31.048349392519999</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2826,10 +3136,10 @@
         <v>0.95</v>
       </c>
       <c r="C52">
-        <v>976</v>
+        <v>20175</v>
       </c>
       <c r="D52">
-        <v>31.240998703626602</v>
+        <v>142.038727113417</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2840,10 +3150,10 @@
         <v>0.97</v>
       </c>
       <c r="C53">
-        <v>1051</v>
+        <v>19720</v>
       </c>
       <c r="D53">
-        <v>32.419130154894603</v>
+        <v>140.42791745233501</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2854,10 +3164,10 @@
         <v>0.99</v>
       </c>
       <c r="C54">
-        <v>986</v>
+        <v>20222</v>
       </c>
       <c r="D54">
-        <v>31.400636936215101</v>
+        <v>142.204078703812</v>
       </c>
     </row>
   </sheetData>
